--- a/excel_template/template.xlsx
+++ b/excel_template/template.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cena ks</t>
+          <t>Cena</t>
         </is>
       </c>
     </row>
